--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4290299.26380148</v>
+        <v>4288419.084031151</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7238406.202617426</v>
+        <v>7238406.202617425</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>103.0662450902028</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.9364581348098</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>20.89282023171169</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>213.6113417665672</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.4177241578221</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>58.19095390327369</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.3514698018584</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.4095565686226</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.41761368552076</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>70.85949911216203</v>
       </c>
       <c r="T19" t="n">
         <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>275.1967010728658</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C22" t="n">
-        <v>70.41761368552045</v>
+        <v>2.007706366895475</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>275.1967010728658</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C25" t="n">
-        <v>70.41761368552045</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>1.750205128282921</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>70.41761368552054</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>241.0969919981166</v>
@@ -2776,10 +2776,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>116.2407940247472</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>70.41761368552068</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.05682971998451</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3010,13 +3010,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329125</v>
       </c>
       <c r="G43" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346322</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.013560149308</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>1327.013560149308</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>968.7478615425575</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>582.9596089443132</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>171.9737041547057</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>158.0503000932966</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>158.0503000932966</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.15289212512</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.013560149308</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.7444020895362</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>885.7444020895362</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>885.7444020895362</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>499.9561494912919</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>88.97024470168435</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>75.04684064027525</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.344242153658</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>512.3599521189926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035247</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>863.1126181035247</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>400.2445180358629</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>1014.141587792752</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.1124721890596</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W13" t="n">
-        <v>754.894602230607</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X13" t="n">
-        <v>526.9050513325898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>306.1124721890596</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,43 +5261,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706316</v>
+        <v>820.5263570570735</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>531.1091870201129</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220956</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729331</v>
+        <v>254.240240084191</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729331</v>
+        <v>254.240240084191</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3459941729331</v>
+        <v>254.240240084191</v>
       </c>
       <c r="E19" t="n">
-        <v>168.3459941729331</v>
+        <v>254.240240084191</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937155</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L19" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M19" t="n">
-        <v>822.784955196936</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1414.86004704719</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1202.22680489297</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449754</v>
+        <v>924.2503391628027</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953627</v>
+        <v>680.71802401319</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146763</v>
+        <v>680.71802401319</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729331</v>
+        <v>463.8806461714469</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729331</v>
+        <v>254.240240084191</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729328</v>
+        <v>393.0291468394972</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>391.0011606103099</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>391.0011606103099</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937156</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U22" t="n">
-        <v>906.980684144975</v>
+        <v>807.0577537630757</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953623</v>
+        <v>563.5254386134627</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146759</v>
+        <v>563.5254386134627</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729328</v>
+        <v>563.5254386134627</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729328</v>
+        <v>563.5254386134627</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5972,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729328</v>
+        <v>393.9655676879801</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6148,49 +6148,49 @@
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937156</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449749</v>
+        <v>1295.899577679501</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953622</v>
+        <v>1052.367262529888</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146758</v>
+        <v>774.1022655492017</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729328</v>
+        <v>774.1022655492017</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729328</v>
+        <v>564.4618594619457</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6236,22 +6236,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>120.53002873665</v>
@@ -6388,16 +6388,16 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1515.22932634489</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1326.461489316716</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1113.828247162496</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>835.8517814323284</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V28" t="n">
-        <v>592.3194662827157</v>
+        <v>841.5019043436304</v>
       </c>
       <c r="W28" t="n">
-        <v>314.0544693020291</v>
+        <v>563.236907362944</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>445.8219639036033</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>236.1815578163474</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6543,22 +6543,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729329</v>
+        <v>453.8079629081072</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729329</v>
+        <v>453.8079629081072</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729329</v>
+        <v>314.8434965520457</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259268</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259268</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259268</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259268</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M31" t="n">
         <v>822.7849551969364</v>
@@ -6634,7 +6634,7 @@
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P31" t="n">
         <v>1536.594541272927</v>
@@ -6646,25 +6646,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1397.590392029364</v>
       </c>
       <c r="T31" t="n">
         <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449754</v>
+        <v>906.9806841449758</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953627</v>
+        <v>663.4483689953631</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146761</v>
+        <v>663.4483689953631</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729329</v>
+        <v>663.4483689953631</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729329</v>
+        <v>453.8079629081072</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6962,19 +6962,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,7 +7093,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229674</v>
@@ -7315,28 +7315,28 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769081</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083212</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103138</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982982</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,7 +7603,7 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>113.6026921294542</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9009,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>182.0340742867952</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>297.3877236703346</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,10 +10446,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>85.30006332127807</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949951</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>158.8724419039342</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978208</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>109.0558671953542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.4224236133147</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C19" t="n">
         <v>156.2061697729164</v>
@@ -23899,16 +23899,16 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
-        <v>63.96278301169906</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856052</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>116.0206595457297</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108795</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>85.78855608739599</v>
+        <v>154.1984634060209</v>
       </c>
       <c r="D22" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856052</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>275.4823470108795</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>85.78855608739599</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>273.446495944583</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.50608739256088</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>98.42821003857853</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>64.9756976353371</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856059</v>
+        <v>19.32176441857603</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607930.4035028582</v>
+        <v>607930.4035028581</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612668.3267851267</v>
+        <v>612668.3267851266</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612668.3267851268</v>
+        <v>612668.3267851267</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637168.1412945075</v>
+        <v>637168.1412945077</v>
       </c>
     </row>
     <row r="14">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
+        <v>788375.3505184436</v>
+      </c>
+      <c r="H2" t="n">
         <v>788375.3505184435</v>
       </c>
-      <c r="H2" t="n">
-        <v>788375.3505184434</v>
-      </c>
       <c r="I2" t="n">
-        <v>788375.3505184436</v>
+        <v>788375.3505184435</v>
       </c>
       <c r="J2" t="n">
         <v>788375.3505184433</v>
       </c>
       <c r="K2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184433</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642843</v>
@@ -26350,10 +26350,10 @@
         <v>821041.7698642844</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642847</v>
+        <v>821041.7698642844</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569134</v>
+        <v>8832.521060569183</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>25807.53208971004</v>
+        <v>25807.53208971005</v>
       </c>
       <c r="H4" t="n">
-        <v>25807.53208971001</v>
+        <v>25807.53208971005</v>
       </c>
       <c r="I4" t="n">
-        <v>25807.53208971001</v>
+        <v>25807.53208971003</v>
       </c>
       <c r="J4" t="n">
-        <v>25807.53208971003</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="K4" t="n">
-        <v>25807.53208971001</v>
+        <v>25807.53208971005</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,10 +26451,10 @@
         <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819126</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,19 +26482,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,7 +26503,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019506</v>
+        <v>-17418.05520019526</v>
       </c>
       <c r="C6" t="n">
         <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143493</v>
+        <v>572549.824014349</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629345</v>
+        <v>142638.6903369621</v>
       </c>
       <c r="F6" t="n">
-        <v>667896.1859398303</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="G6" t="n">
-        <v>660819.7949031466</v>
+        <v>660738.128854782</v>
       </c>
       <c r="H6" t="n">
-        <v>669652.3159637155</v>
+        <v>669570.6499153511</v>
       </c>
       <c r="I6" t="n">
-        <v>669652.3159637158</v>
+        <v>669570.6499153511</v>
       </c>
       <c r="J6" t="n">
-        <v>493229.0967711224</v>
+        <v>493147.4307227578</v>
       </c>
       <c r="K6" t="n">
-        <v>669652.3159637155</v>
+        <v>669570.6499153508</v>
       </c>
       <c r="L6" t="n">
         <v>624227.7571123552</v>
@@ -26555,13 +26555,13 @@
         <v>543932.2539822306</v>
       </c>
       <c r="N6" t="n">
-        <v>678733.2692160679</v>
+        <v>678733.2692160677</v>
       </c>
       <c r="O6" t="n">
-        <v>678733.269216068</v>
+        <v>678733.2692160677</v>
       </c>
       <c r="P6" t="n">
-        <v>678733.269216068</v>
+        <v>678733.2692160677</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>48.86507115465845</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>216.488808801661</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>204.7973835286708</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>303.0299525326454</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>38.52630155726084</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.512645914439645</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,16 +27904,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19.4295499393364</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571148</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="C22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="D22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="E22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="F22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="G22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="J22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="K22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="L22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="N22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="O22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="P22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="R22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="S22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="T22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="U22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="V22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="W22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="X22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="C31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="D31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="E31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="G31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="H31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="I31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="J31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="K31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="L31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="M31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="N31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="O31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="P31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="R31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="S31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="T31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="U31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="V31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="W31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="X31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571145</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35489,10 +35489,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>264.1781307173934</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,13 +35504,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>510.0474576375759</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>515.228647684808</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127693</v>
+        <v>23.548421491277</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M19" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N19" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O19" t="n">
         <v>247.2780028463143</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758623</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686864</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127692</v>
+        <v>23.548421491277</v>
       </c>
       <c r="K22" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M22" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N22" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758623</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>343.3952292757305</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36455,10 +36455,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>504.4811386018593</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127697</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M28" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758615</v>
+        <v>50.2663512975862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>383.8211928074494</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127697</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758615</v>
+        <v>50.2663512975862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045736</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>441.2361441450423</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958064</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
